--- a/INTLINE/data/134/DEUSTATIS/Producer price index for industrial products - GPS codes - 2016.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Producer price index for industrial products - GPS codes - 2016.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="213">
   <si>
     <t>Producer price index for industrial products: Germany,
 months, product classification (GP2009 2-/3-/4-/5-/6-/
@@ -652,7 +652,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 04:04:54</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:43:35</t>
   </si>
 </sst>
 </file>
@@ -3290,11 +3290,11 @@
       <c r="BX7" t="n" s="10">
         <v>130.3</v>
       </c>
-      <c r="BY7" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ7" t="s" s="10">
-        <v>26</v>
+      <c r="BY7" t="n" s="10">
+        <v>134.9</v>
+      </c>
+      <c r="BZ7" t="n" s="10">
+        <v>140.4</v>
       </c>
       <c r="CA7" t="s" s="10">
         <v>26</v>
@@ -3550,11 +3550,11 @@
       <c r="BX8" t="n" s="10">
         <v>112.2</v>
       </c>
-      <c r="BY8" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ8" t="s" s="10">
-        <v>26</v>
+      <c r="BY8" t="n" s="10">
+        <v>112.7</v>
+      </c>
+      <c r="BZ8" t="n" s="10">
+        <v>114.0</v>
       </c>
       <c r="CA8" t="s" s="10">
         <v>26</v>
@@ -3810,11 +3810,11 @@
       <c r="BX9" t="n" s="10">
         <v>115.3</v>
       </c>
-      <c r="BY9" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ9" t="s" s="10">
-        <v>26</v>
+      <c r="BY9" t="n" s="10">
+        <v>116.2</v>
+      </c>
+      <c r="BZ9" t="n" s="10">
+        <v>117.6</v>
       </c>
       <c r="CA9" t="s" s="10">
         <v>26</v>
@@ -4070,11 +4070,11 @@
       <c r="BX10" t="n" s="10">
         <v>114.5</v>
       </c>
-      <c r="BY10" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ10" t="s" s="10">
-        <v>26</v>
+      <c r="BY10" t="n" s="10">
+        <v>117.8</v>
+      </c>
+      <c r="BZ10" t="n" s="10">
+        <v>122.4</v>
       </c>
       <c r="CA10" t="s" s="10">
         <v>26</v>
@@ -4330,11 +4330,11 @@
       <c r="BX11" t="n" s="10">
         <v>114.6</v>
       </c>
-      <c r="BY11" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ11" t="s" s="10">
-        <v>26</v>
+      <c r="BY11" t="n" s="10">
+        <v>117.6</v>
+      </c>
+      <c r="BZ11" t="n" s="10">
+        <v>121.8</v>
       </c>
       <c r="CA11" t="s" s="10">
         <v>26</v>
@@ -4590,11 +4590,11 @@
       <c r="BX12" t="n" s="10">
         <v>134.3</v>
       </c>
-      <c r="BY12" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ12" t="s" s="10">
-        <v>26</v>
+      <c r="BY12" t="n" s="10">
+        <v>140.0</v>
+      </c>
+      <c r="BZ12" t="n" s="10">
+        <v>144.4</v>
       </c>
       <c r="CA12" t="s" s="10">
         <v>26</v>
@@ -4850,11 +4850,11 @@
       <c r="BX13" t="n" s="10">
         <v>120.3</v>
       </c>
-      <c r="BY13" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ13" t="s" s="10">
-        <v>26</v>
+      <c r="BY13" t="n" s="10">
+        <v>123.1</v>
+      </c>
+      <c r="BZ13" t="n" s="10">
+        <v>126.8</v>
       </c>
       <c r="CA13" t="s" s="10">
         <v>26</v>
@@ -5110,11 +5110,11 @@
       <c r="BX14" t="n" s="10">
         <v>121.5</v>
       </c>
-      <c r="BY14" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ14" t="s" s="10">
-        <v>26</v>
+      <c r="BY14" t="n" s="10">
+        <v>125.6</v>
+      </c>
+      <c r="BZ14" t="n" s="10">
+        <v>128.9</v>
       </c>
       <c r="CA14" t="s" s="10">
         <v>26</v>
@@ -5370,11 +5370,11 @@
       <c r="BX15" t="n" s="10">
         <v>121.6</v>
       </c>
-      <c r="BY15" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ15" t="s" s="10">
-        <v>26</v>
+      <c r="BY15" t="n" s="10">
+        <v>125.8</v>
+      </c>
+      <c r="BZ15" t="n" s="10">
+        <v>129.1</v>
       </c>
       <c r="CA15" t="s" s="10">
         <v>26</v>
@@ -5630,11 +5630,11 @@
       <c r="BX16" t="n" s="10">
         <v>135.0</v>
       </c>
-      <c r="BY16" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ16" t="s" s="10">
-        <v>26</v>
+      <c r="BY16" t="n" s="10">
+        <v>141.8</v>
+      </c>
+      <c r="BZ16" t="n" s="10">
+        <v>145.9</v>
       </c>
       <c r="CA16" t="s" s="10">
         <v>26</v>
@@ -5890,11 +5890,11 @@
       <c r="BX17" t="n" s="10">
         <v>179.3</v>
       </c>
-      <c r="BY17" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ17" t="s" s="10">
-        <v>26</v>
+      <c r="BY17" t="n" s="10">
+        <v>197.9</v>
+      </c>
+      <c r="BZ17" t="n" s="10">
+        <v>202.8</v>
       </c>
       <c r="CA17" t="s" s="10">
         <v>26</v>
@@ -6150,11 +6150,11 @@
       <c r="BX18" t="n" s="10">
         <v>167.6</v>
       </c>
-      <c r="BY18" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ18" t="s" s="10">
-        <v>26</v>
+      <c r="BY18" t="n" s="10">
+        <v>174.0</v>
+      </c>
+      <c r="BZ18" t="n" s="10">
+        <v>183.3</v>
       </c>
       <c r="CA18" t="s" s="10">
         <v>26</v>
@@ -6410,11 +6410,11 @@
       <c r="BX19" t="n" s="10">
         <v>139.1</v>
       </c>
-      <c r="BY19" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ19" t="s" s="10">
-        <v>26</v>
+      <c r="BY19" t="n" s="10">
+        <v>139.5</v>
+      </c>
+      <c r="BZ19" t="n" s="10">
+        <v>143.9</v>
       </c>
       <c r="CA19" t="s" s="10">
         <v>26</v>
@@ -6670,11 +6670,11 @@
       <c r="BX20" t="n" s="10">
         <v>119.9</v>
       </c>
-      <c r="BY20" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ20" t="s" s="10">
-        <v>26</v>
+      <c r="BY20" t="n" s="10">
+        <v>123.7</v>
+      </c>
+      <c r="BZ20" t="n" s="10">
+        <v>126.8</v>
       </c>
       <c r="CA20" t="s" s="10">
         <v>26</v>
@@ -6930,11 +6930,11 @@
       <c r="BX21" t="n" s="10">
         <v>119.0</v>
       </c>
-      <c r="BY21" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ21" t="s" s="10">
-        <v>26</v>
+      <c r="BY21" t="n" s="10">
+        <v>121.5</v>
+      </c>
+      <c r="BZ21" t="n" s="10">
+        <v>125.0</v>
       </c>
       <c r="CA21" t="s" s="10">
         <v>26</v>
@@ -7190,11 +7190,11 @@
       <c r="BX22" t="n" s="10">
         <v>117.1</v>
       </c>
-      <c r="BY22" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ22" t="s" s="10">
-        <v>26</v>
+      <c r="BY22" t="n" s="10">
+        <v>122.1</v>
+      </c>
+      <c r="BZ22" t="n" s="10">
+        <v>128.8</v>
       </c>
       <c r="CA22" t="s" s="10">
         <v>26</v>
@@ -7450,11 +7450,11 @@
       <c r="BX23" t="n" s="10">
         <v>116.4</v>
       </c>
-      <c r="BY23" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ23" t="s" s="10">
-        <v>26</v>
+      <c r="BY23" t="n" s="10">
+        <v>120.8</v>
+      </c>
+      <c r="BZ23" t="n" s="10">
+        <v>126.7</v>
       </c>
       <c r="CA23" t="s" s="10">
         <v>26</v>
@@ -7710,11 +7710,11 @@
       <c r="BX24" t="n" s="10">
         <v>117.5</v>
       </c>
-      <c r="BY24" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ24" t="s" s="10">
-        <v>26</v>
+      <c r="BY24" t="n" s="10">
+        <v>123.0</v>
+      </c>
+      <c r="BZ24" t="n" s="10">
+        <v>129.0</v>
       </c>
       <c r="CA24" t="s" s="10">
         <v>26</v>
@@ -7970,11 +7970,11 @@
       <c r="BX25" t="n" s="10">
         <v>128.7</v>
       </c>
-      <c r="BY25" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ25" t="s" s="10">
-        <v>26</v>
+      <c r="BY25" t="n" s="10">
+        <v>132.3</v>
+      </c>
+      <c r="BZ25" t="n" s="10">
+        <v>140.4</v>
       </c>
       <c r="CA25" t="s" s="10">
         <v>26</v>
@@ -8230,11 +8230,11 @@
       <c r="BX26" t="n" s="10">
         <v>137.4</v>
       </c>
-      <c r="BY26" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ26" t="s" s="10">
-        <v>26</v>
+      <c r="BY26" t="n" s="10">
+        <v>173.5</v>
+      </c>
+      <c r="BZ26" t="n" s="10">
+        <v>161.7</v>
       </c>
       <c r="CA26" t="s" s="10">
         <v>26</v>
@@ -8490,11 +8490,11 @@
       <c r="BX27" t="n" s="10">
         <v>175.8</v>
       </c>
-      <c r="BY27" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ27" t="s" s="10">
-        <v>26</v>
+      <c r="BY27" t="n" s="10">
+        <v>261.4</v>
+      </c>
+      <c r="BZ27" t="n" s="10">
+        <v>230.2</v>
       </c>
       <c r="CA27" t="s" s="10">
         <v>26</v>
@@ -8750,11 +8750,11 @@
       <c r="BX28" t="n" s="10">
         <v>114.4</v>
       </c>
-      <c r="BY28" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ28" t="s" s="10">
-        <v>26</v>
+      <c r="BY28" t="n" s="10">
+        <v>116.2</v>
+      </c>
+      <c r="BZ28" t="n" s="10">
+        <v>119.1</v>
       </c>
       <c r="CA28" t="s" s="10">
         <v>26</v>
@@ -9010,11 +9010,11 @@
       <c r="BX29" t="n" s="10">
         <v>116.4</v>
       </c>
-      <c r="BY29" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ29" t="s" s="10">
-        <v>26</v>
+      <c r="BY29" t="n" s="10">
+        <v>122.4</v>
+      </c>
+      <c r="BZ29" t="n" s="10">
+        <v>126.6</v>
       </c>
       <c r="CA29" t="s" s="10">
         <v>26</v>
@@ -9270,11 +9270,11 @@
       <c r="BX30" t="n" s="10">
         <v>129.3</v>
       </c>
-      <c r="BY30" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ30" t="s" s="10">
-        <v>26</v>
+      <c r="BY30" t="n" s="10">
+        <v>129.9</v>
+      </c>
+      <c r="BZ30" t="n" s="10">
+        <v>132.1</v>
       </c>
       <c r="CA30" t="s" s="10">
         <v>26</v>
@@ -9530,11 +9530,11 @@
       <c r="BX31" t="n" s="10">
         <v>156.4</v>
       </c>
-      <c r="BY31" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ31" t="s" s="10">
-        <v>26</v>
+      <c r="BY31" t="n" s="10">
+        <v>160.4</v>
+      </c>
+      <c r="BZ31" t="n" s="10">
+        <v>170.4</v>
       </c>
       <c r="CA31" t="s" s="10">
         <v>26</v>
@@ -9790,11 +9790,11 @@
       <c r="BX32" t="n" s="10">
         <v>137.2</v>
       </c>
-      <c r="BY32" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ32" t="s" s="10">
-        <v>26</v>
+      <c r="BY32" t="n" s="10">
+        <v>138.5</v>
+      </c>
+      <c r="BZ32" t="n" s="10">
+        <v>142.4</v>
       </c>
       <c r="CA32" t="s" s="10">
         <v>26</v>
@@ -10050,11 +10050,11 @@
       <c r="BX33" t="n" s="10">
         <v>110.8</v>
       </c>
-      <c r="BY33" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ33" t="s" s="10">
-        <v>26</v>
+      <c r="BY33" t="n" s="10">
+        <v>111.0</v>
+      </c>
+      <c r="BZ33" t="n" s="10">
+        <v>111.2</v>
       </c>
       <c r="CA33" t="s" s="10">
         <v>26</v>
@@ -10310,11 +10310,11 @@
       <c r="BX34" t="n" s="10">
         <v>111.2</v>
       </c>
-      <c r="BY34" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ34" t="s" s="10">
-        <v>26</v>
+      <c r="BY34" t="n" s="10">
+        <v>111.9</v>
+      </c>
+      <c r="BZ34" t="n" s="10">
+        <v>112.9</v>
       </c>
       <c r="CA34" t="s" s="10">
         <v>26</v>
@@ -10570,11 +10570,11 @@
       <c r="BX35" t="n" s="10">
         <v>111.5</v>
       </c>
-      <c r="BY35" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ35" t="s" s="10">
-        <v>26</v>
+      <c r="BY35" t="n" s="10">
+        <v>112.2</v>
+      </c>
+      <c r="BZ35" t="n" s="10">
+        <v>113.2</v>
       </c>
       <c r="CA35" t="s" s="10">
         <v>26</v>
@@ -10830,11 +10830,11 @@
       <c r="BX36" t="n" s="10">
         <v>110.1</v>
       </c>
-      <c r="BY36" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ36" t="s" s="10">
-        <v>26</v>
+      <c r="BY36" t="n" s="10">
+        <v>110.8</v>
+      </c>
+      <c r="BZ36" t="n" s="10">
+        <v>111.7</v>
       </c>
       <c r="CA36" t="s" s="10">
         <v>26</v>
@@ -11090,11 +11090,11 @@
       <c r="BX37" t="n" s="10">
         <v>110.9</v>
       </c>
-      <c r="BY37" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ37" t="s" s="10">
-        <v>26</v>
+      <c r="BY37" t="n" s="10">
+        <v>111.5</v>
+      </c>
+      <c r="BZ37" t="n" s="10">
+        <v>112.6</v>
       </c>
       <c r="CA37" t="s" s="10">
         <v>26</v>
@@ -11350,11 +11350,11 @@
       <c r="BX38" t="n" s="10">
         <v>108.9</v>
       </c>
-      <c r="BY38" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ38" t="s" s="10">
-        <v>26</v>
+      <c r="BY38" t="n" s="10">
+        <v>108.8</v>
+      </c>
+      <c r="BZ38" t="n" s="10">
+        <v>109.2</v>
       </c>
       <c r="CA38" t="s" s="10">
         <v>26</v>
@@ -11610,11 +11610,11 @@
       <c r="BX39" t="n" s="10">
         <v>114.1</v>
       </c>
-      <c r="BY39" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ39" t="s" s="10">
-        <v>26</v>
+      <c r="BY39" t="n" s="10">
+        <v>114.5</v>
+      </c>
+      <c r="BZ39" t="n" s="10">
+        <v>116.3</v>
       </c>
       <c r="CA39" t="s" s="10">
         <v>26</v>
@@ -11870,11 +11870,11 @@
       <c r="BX40" t="n" s="10">
         <v>113.2</v>
       </c>
-      <c r="BY40" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ40" t="s" s="10">
-        <v>26</v>
+      <c r="BY40" t="n" s="10">
+        <v>113.7</v>
+      </c>
+      <c r="BZ40" t="n" s="10">
+        <v>115.1</v>
       </c>
       <c r="CA40" t="s" s="10">
         <v>26</v>
@@ -12130,11 +12130,11 @@
       <c r="BX41" t="n" s="10">
         <v>114.3</v>
       </c>
-      <c r="BY41" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ41" t="s" s="10">
-        <v>26</v>
+      <c r="BY41" t="n" s="10">
+        <v>114.3</v>
+      </c>
+      <c r="BZ41" t="n" s="10">
+        <v>114.4</v>
       </c>
       <c r="CA41" t="s" s="10">
         <v>26</v>
@@ -12390,11 +12390,11 @@
       <c r="BX42" t="n" s="10">
         <v>113.6</v>
       </c>
-      <c r="BY42" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ42" t="s" s="10">
-        <v>26</v>
+      <c r="BY42" t="n" s="10">
+        <v>114.0</v>
+      </c>
+      <c r="BZ42" t="n" s="10">
+        <v>115.4</v>
       </c>
       <c r="CA42" t="s" s="10">
         <v>26</v>
@@ -12650,11 +12650,11 @@
       <c r="BX43" t="n" s="10">
         <v>114.1</v>
       </c>
-      <c r="BY43" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ43" t="s" s="10">
-        <v>26</v>
+      <c r="BY43" t="n" s="10">
+        <v>114.3</v>
+      </c>
+      <c r="BZ43" t="n" s="10">
+        <v>115.3</v>
       </c>
       <c r="CA43" t="s" s="10">
         <v>26</v>
@@ -12910,11 +12910,11 @@
       <c r="BX44" t="n" s="10">
         <v>113.4</v>
       </c>
-      <c r="BY44" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ44" t="s" s="10">
-        <v>26</v>
+      <c r="BY44" t="n" s="10">
+        <v>113.7</v>
+      </c>
+      <c r="BZ44" t="n" s="10">
+        <v>114.6</v>
       </c>
       <c r="CA44" t="s" s="10">
         <v>26</v>
@@ -13170,11 +13170,11 @@
       <c r="BX45" t="n" s="10">
         <v>115.8</v>
       </c>
-      <c r="BY45" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ45" t="s" s="10">
-        <v>26</v>
+      <c r="BY45" t="n" s="10">
+        <v>116.2</v>
+      </c>
+      <c r="BZ45" t="n" s="10">
+        <v>117.9</v>
       </c>
       <c r="CA45" t="s" s="10">
         <v>26</v>
@@ -13430,11 +13430,11 @@
       <c r="BX46" t="n" s="10">
         <v>117.7</v>
       </c>
-      <c r="BY46" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ46" t="s" s="10">
-        <v>26</v>
+      <c r="BY46" t="n" s="10">
+        <v>118.4</v>
+      </c>
+      <c r="BZ46" t="n" s="10">
+        <v>119.5</v>
       </c>
       <c r="CA46" t="s" s="10">
         <v>26</v>
@@ -13690,11 +13690,11 @@
       <c r="BX47" t="n" s="10">
         <v>114.1</v>
       </c>
-      <c r="BY47" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ47" t="s" s="10">
-        <v>26</v>
+      <c r="BY47" t="n" s="10">
+        <v>115.0</v>
+      </c>
+      <c r="BZ47" t="n" s="10">
+        <v>115.7</v>
       </c>
       <c r="CA47" t="s" s="10">
         <v>26</v>
@@ -13950,11 +13950,11 @@
       <c r="BX48" t="n" s="10">
         <v>116.4</v>
       </c>
-      <c r="BY48" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ48" t="s" s="10">
-        <v>26</v>
+      <c r="BY48" t="n" s="10">
+        <v>116.4</v>
+      </c>
+      <c r="BZ48" t="n" s="10">
+        <v>117.6</v>
       </c>
       <c r="CA48" t="s" s="10">
         <v>26</v>
@@ -14210,11 +14210,11 @@
       <c r="BX49" t="n" s="10">
         <v>121.0</v>
       </c>
-      <c r="BY49" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ49" t="s" s="10">
-        <v>26</v>
+      <c r="BY49" t="n" s="10">
+        <v>121.0</v>
+      </c>
+      <c r="BZ49" t="n" s="10">
+        <v>125.2</v>
       </c>
       <c r="CA49" t="s" s="10">
         <v>26</v>
@@ -14470,11 +14470,11 @@
       <c r="BX50" t="n" s="10">
         <v>121.5</v>
       </c>
-      <c r="BY50" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ50" t="s" s="10">
-        <v>26</v>
+      <c r="BY50" t="n" s="10">
+        <v>121.5</v>
+      </c>
+      <c r="BZ50" t="n" s="10">
+        <v>123.6</v>
       </c>
       <c r="CA50" t="s" s="10">
         <v>26</v>
@@ -14730,11 +14730,11 @@
       <c r="BX51" t="n" s="10">
         <v>113.2</v>
       </c>
-      <c r="BY51" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ51" t="s" s="10">
-        <v>26</v>
+      <c r="BY51" t="n" s="10">
+        <v>113.3</v>
+      </c>
+      <c r="BZ51" t="n" s="10">
+        <v>114.8</v>
       </c>
       <c r="CA51" t="s" s="10">
         <v>26</v>
@@ -14990,11 +14990,11 @@
       <c r="BX52" t="n" s="10">
         <v>111.3</v>
       </c>
-      <c r="BY52" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ52" t="s" s="10">
-        <v>26</v>
+      <c r="BY52" t="n" s="10">
+        <v>112.5</v>
+      </c>
+      <c r="BZ52" t="n" s="10">
+        <v>113.2</v>
       </c>
       <c r="CA52" t="s" s="10">
         <v>26</v>
@@ -15250,11 +15250,11 @@
       <c r="BX53" t="n" s="10">
         <v>110.1</v>
       </c>
-      <c r="BY53" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ53" t="s" s="10">
-        <v>26</v>
+      <c r="BY53" t="n" s="10">
+        <v>110.2</v>
+      </c>
+      <c r="BZ53" t="n" s="10">
+        <v>110.3</v>
       </c>
       <c r="CA53" t="s" s="10">
         <v>26</v>
@@ -15510,11 +15510,11 @@
       <c r="BX54" t="n" s="10">
         <v>117.3</v>
       </c>
-      <c r="BY54" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ54" t="s" s="10">
-        <v>26</v>
+      <c r="BY54" t="n" s="10">
+        <v>117.8</v>
+      </c>
+      <c r="BZ54" t="n" s="10">
+        <v>117.8</v>
       </c>
       <c r="CA54" t="s" s="10">
         <v>26</v>
@@ -15770,11 +15770,11 @@
       <c r="BX55" t="n" s="10">
         <v>119.2</v>
       </c>
-      <c r="BY55" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ55" t="s" s="10">
-        <v>26</v>
+      <c r="BY55" t="n" s="10">
+        <v>120.0</v>
+      </c>
+      <c r="BZ55" t="n" s="10">
+        <v>121.5</v>
       </c>
       <c r="CA55" t="s" s="10">
         <v>26</v>
@@ -16030,11 +16030,11 @@
       <c r="BX56" t="n" s="10">
         <v>115.7</v>
       </c>
-      <c r="BY56" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ56" t="s" s="10">
-        <v>26</v>
+      <c r="BY56" t="n" s="10">
+        <v>115.9</v>
+      </c>
+      <c r="BZ56" t="n" s="10">
+        <v>117.8</v>
       </c>
       <c r="CA56" t="s" s="10">
         <v>26</v>
@@ -16290,11 +16290,11 @@
       <c r="BX57" t="n" s="10">
         <v>114.5</v>
       </c>
-      <c r="BY57" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ57" t="s" s="10">
-        <v>26</v>
+      <c r="BY57" t="n" s="10">
+        <v>114.8</v>
+      </c>
+      <c r="BZ57" t="n" s="10">
+        <v>116.1</v>
       </c>
       <c r="CA57" t="s" s="10">
         <v>26</v>
@@ -16550,11 +16550,11 @@
       <c r="BX58" t="n" s="10">
         <v>117.0</v>
       </c>
-      <c r="BY58" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ58" t="s" s="10">
-        <v>26</v>
+      <c r="BY58" t="n" s="10">
+        <v>118.0</v>
+      </c>
+      <c r="BZ58" t="n" s="10">
+        <v>121.2</v>
       </c>
       <c r="CA58" t="s" s="10">
         <v>26</v>
@@ -16810,11 +16810,11 @@
       <c r="BX59" t="n" s="10">
         <v>116.3</v>
       </c>
-      <c r="BY59" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ59" t="s" s="10">
-        <v>26</v>
+      <c r="BY59" t="n" s="10">
+        <v>117.2</v>
+      </c>
+      <c r="BZ59" t="n" s="10">
+        <v>120.1</v>
       </c>
       <c r="CA59" t="s" s="10">
         <v>26</v>
@@ -17070,11 +17070,11 @@
       <c r="BX60" t="n" s="10">
         <v>115.6</v>
       </c>
-      <c r="BY60" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ60" t="s" s="10">
-        <v>26</v>
+      <c r="BY60" t="n" s="10">
+        <v>118.3</v>
+      </c>
+      <c r="BZ60" t="n" s="10">
+        <v>118.3</v>
       </c>
       <c r="CA60" t="s" s="10">
         <v>26</v>
@@ -17330,11 +17330,11 @@
       <c r="BX61" t="n" s="10">
         <v>113.7</v>
       </c>
-      <c r="BY61" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ61" t="s" s="10">
-        <v>26</v>
+      <c r="BY61" t="n" s="10">
+        <v>115.0</v>
+      </c>
+      <c r="BZ61" t="n" s="10">
+        <v>116.0</v>
       </c>
       <c r="CA61" t="s" s="10">
         <v>26</v>
@@ -17590,11 +17590,11 @@
       <c r="BX62" t="n" s="10">
         <v>116.6</v>
       </c>
-      <c r="BY62" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ62" t="s" s="10">
-        <v>26</v>
+      <c r="BY62" t="n" s="10">
+        <v>117.4</v>
+      </c>
+      <c r="BZ62" t="n" s="10">
+        <v>118.8</v>
       </c>
       <c r="CA62" t="s" s="10">
         <v>26</v>
@@ -17850,11 +17850,11 @@
       <c r="BX63" t="n" s="10">
         <v>108.0</v>
       </c>
-      <c r="BY63" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ63" t="s" s="10">
-        <v>26</v>
+      <c r="BY63" t="n" s="10">
+        <v>108.1</v>
+      </c>
+      <c r="BZ63" t="n" s="10">
+        <v>110.5</v>
       </c>
       <c r="CA63" t="s" s="10">
         <v>26</v>
@@ -18110,11 +18110,11 @@
       <c r="BX64" t="n" s="10">
         <v>116.8</v>
       </c>
-      <c r="BY64" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ64" t="s" s="10">
-        <v>26</v>
+      <c r="BY64" t="n" s="10">
+        <v>117.6</v>
+      </c>
+      <c r="BZ64" t="n" s="10">
+        <v>119.2</v>
       </c>
       <c r="CA64" t="s" s="10">
         <v>26</v>
@@ -18370,11 +18370,11 @@
       <c r="BX65" t="n" s="10">
         <v>114.8</v>
       </c>
-      <c r="BY65" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ65" t="s" s="10">
-        <v>26</v>
+      <c r="BY65" t="n" s="10">
+        <v>115.3</v>
+      </c>
+      <c r="BZ65" t="n" s="10">
+        <v>116.9</v>
       </c>
       <c r="CA65" t="s" s="10">
         <v>26</v>
@@ -18630,11 +18630,11 @@
       <c r="BX66" t="n" s="10">
         <v>110.9</v>
       </c>
-      <c r="BY66" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ66" t="s" s="10">
-        <v>26</v>
+      <c r="BY66" t="n" s="10">
+        <v>111.3</v>
+      </c>
+      <c r="BZ66" t="n" s="10">
+        <v>112.0</v>
       </c>
       <c r="CA66" t="s" s="10">
         <v>26</v>
@@ -18890,11 +18890,11 @@
       <c r="BX67" t="n" s="10">
         <v>121.4</v>
       </c>
-      <c r="BY67" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ67" t="s" s="10">
-        <v>26</v>
+      <c r="BY67" t="n" s="10">
+        <v>121.4</v>
+      </c>
+      <c r="BZ67" t="n" s="10">
+        <v>124.1</v>
       </c>
       <c r="CA67" t="s" s="10">
         <v>26</v>
@@ -19150,11 +19150,11 @@
       <c r="BX68" t="n" s="10">
         <v>113.4</v>
       </c>
-      <c r="BY68" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ68" t="s" s="10">
-        <v>26</v>
+      <c r="BY68" t="n" s="10">
+        <v>113.6</v>
+      </c>
+      <c r="BZ68" t="n" s="10">
+        <v>115.8</v>
       </c>
       <c r="CA68" t="s" s="10">
         <v>26</v>
@@ -19410,11 +19410,11 @@
       <c r="BX69" t="n" s="10">
         <v>115.0</v>
       </c>
-      <c r="BY69" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ69" t="s" s="10">
-        <v>26</v>
+      <c r="BY69" t="n" s="10">
+        <v>116.0</v>
+      </c>
+      <c r="BZ69" t="n" s="10">
+        <v>117.9</v>
       </c>
       <c r="CA69" t="s" s="10">
         <v>26</v>
@@ -19670,11 +19670,11 @@
       <c r="BX70" t="n" s="10">
         <v>117.7</v>
       </c>
-      <c r="BY70" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ70" t="s" s="10">
-        <v>26</v>
+      <c r="BY70" t="n" s="10">
+        <v>118.6</v>
+      </c>
+      <c r="BZ70" t="n" s="10">
+        <v>121.5</v>
       </c>
       <c r="CA70" t="s" s="10">
         <v>26</v>
@@ -19930,11 +19930,11 @@
       <c r="BX71" t="n" s="10">
         <v>115.8</v>
       </c>
-      <c r="BY71" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ71" t="s" s="10">
-        <v>26</v>
+      <c r="BY71" t="n" s="10">
+        <v>116.0</v>
+      </c>
+      <c r="BZ71" t="n" s="10">
+        <v>117.9</v>
       </c>
       <c r="CA71" t="s" s="10">
         <v>26</v>
@@ -20190,11 +20190,11 @@
       <c r="BX72" t="n" s="10">
         <v>117.3</v>
       </c>
-      <c r="BY72" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ72" t="s" s="10">
-        <v>26</v>
+      <c r="BY72" t="n" s="10">
+        <v>117.9</v>
+      </c>
+      <c r="BZ72" t="n" s="10">
+        <v>118.7</v>
       </c>
       <c r="CA72" t="s" s="10">
         <v>26</v>
@@ -20450,11 +20450,11 @@
       <c r="BX73" t="n" s="10">
         <v>119.9</v>
       </c>
-      <c r="BY73" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ73" t="s" s="10">
-        <v>26</v>
+      <c r="BY73" t="n" s="10">
+        <v>119.9</v>
+      </c>
+      <c r="BZ73" t="n" s="10">
+        <v>120.1</v>
       </c>
       <c r="CA73" t="s" s="10">
         <v>26</v>
@@ -20710,11 +20710,11 @@
       <c r="BX74" t="n" s="10">
         <v>118.7</v>
       </c>
-      <c r="BY74" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ74" t="s" s="10">
-        <v>26</v>
+      <c r="BY74" t="n" s="10">
+        <v>118.7</v>
+      </c>
+      <c r="BZ74" t="n" s="10">
+        <v>118.9</v>
       </c>
       <c r="CA74" t="s" s="10">
         <v>26</v>
@@ -20970,11 +20970,11 @@
       <c r="BX75" t="n" s="10">
         <v>111.3</v>
       </c>
-      <c r="BY75" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ75" t="s" s="10">
-        <v>26</v>
+      <c r="BY75" t="n" s="10">
+        <v>111.4</v>
+      </c>
+      <c r="BZ75" t="n" s="10">
+        <v>113.9</v>
       </c>
       <c r="CA75" t="s" s="10">
         <v>26</v>
@@ -21230,11 +21230,11 @@
       <c r="BX76" t="n" s="10">
         <v>112.4</v>
       </c>
-      <c r="BY76" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ76" t="s" s="10">
-        <v>26</v>
+      <c r="BY76" t="n" s="10">
+        <v>112.5</v>
+      </c>
+      <c r="BZ76" t="n" s="10">
+        <v>113.0</v>
       </c>
       <c r="CA76" t="s" s="10">
         <v>26</v>
@@ -21490,11 +21490,11 @@
       <c r="BX77" t="n" s="10">
         <v>112.8</v>
       </c>
-      <c r="BY77" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ77" t="s" s="10">
-        <v>26</v>
+      <c r="BY77" t="n" s="10">
+        <v>112.9</v>
+      </c>
+      <c r="BZ77" t="n" s="10">
+        <v>114.7</v>
       </c>
       <c r="CA77" t="s" s="10">
         <v>26</v>
@@ -21750,11 +21750,11 @@
       <c r="BX78" t="n" s="10">
         <v>114.6</v>
       </c>
-      <c r="BY78" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ78" t="s" s="10">
-        <v>26</v>
+      <c r="BY78" t="n" s="10">
+        <v>115.1</v>
+      </c>
+      <c r="BZ78" t="n" s="10">
+        <v>117.0</v>
       </c>
       <c r="CA78" t="s" s="10">
         <v>26</v>
@@ -22010,11 +22010,11 @@
       <c r="BX79" t="n" s="10">
         <v>117.8</v>
       </c>
-      <c r="BY79" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ79" t="s" s="10">
-        <v>26</v>
+      <c r="BY79" t="n" s="10">
+        <v>118.0</v>
+      </c>
+      <c r="BZ79" t="n" s="10">
+        <v>119.1</v>
       </c>
       <c r="CA79" t="s" s="10">
         <v>26</v>
@@ -22270,11 +22270,11 @@
       <c r="BX80" t="n" s="10">
         <v>114.3</v>
       </c>
-      <c r="BY80" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ80" t="s" s="10">
-        <v>26</v>
+      <c r="BY80" t="n" s="10">
+        <v>114.8</v>
+      </c>
+      <c r="BZ80" t="n" s="10">
+        <v>116.9</v>
       </c>
       <c r="CA80" t="s" s="10">
         <v>26</v>
@@ -22530,11 +22530,11 @@
       <c r="BX81" t="n" s="10">
         <v>111.7</v>
       </c>
-      <c r="BY81" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ81" t="s" s="10">
-        <v>26</v>
+      <c r="BY81" t="n" s="10">
+        <v>111.7</v>
+      </c>
+      <c r="BZ81" t="n" s="10">
+        <v>112.5</v>
       </c>
       <c r="CA81" t="s" s="10">
         <v>26</v>
@@ -22790,11 +22790,11 @@
       <c r="BX82" t="n" s="10">
         <v>119.4</v>
       </c>
-      <c r="BY82" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ82" t="s" s="10">
-        <v>26</v>
+      <c r="BY82" t="n" s="10">
+        <v>121.9</v>
+      </c>
+      <c r="BZ82" t="n" s="10">
+        <v>123.1</v>
       </c>
       <c r="CA82" t="s" s="10">
         <v>26</v>
@@ -23050,11 +23050,11 @@
       <c r="BX83" t="n" s="10">
         <v>113.1</v>
       </c>
-      <c r="BY83" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ83" t="s" s="10">
-        <v>26</v>
+      <c r="BY83" t="n" s="10">
+        <v>114.4</v>
+      </c>
+      <c r="BZ83" t="n" s="10">
+        <v>115.9</v>
       </c>
       <c r="CA83" t="s" s="10">
         <v>26</v>
@@ -23310,11 +23310,11 @@
       <c r="BX84" t="n" s="10">
         <v>113.3</v>
       </c>
-      <c r="BY84" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ84" t="s" s="10">
-        <v>26</v>
+      <c r="BY84" t="n" s="10">
+        <v>113.7</v>
+      </c>
+      <c r="BZ84" t="n" s="10">
+        <v>114.9</v>
       </c>
       <c r="CA84" t="s" s="10">
         <v>26</v>
@@ -23570,11 +23570,11 @@
       <c r="BX85" t="n" s="10">
         <v>112.5</v>
       </c>
-      <c r="BY85" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ85" t="s" s="10">
-        <v>26</v>
+      <c r="BY85" t="n" s="10">
+        <v>113.0</v>
+      </c>
+      <c r="BZ85" t="n" s="10">
+        <v>114.6</v>
       </c>
       <c r="CA85" t="s" s="10">
         <v>26</v>
@@ -23830,11 +23830,11 @@
       <c r="BX86" t="n" s="10">
         <v>113.2</v>
       </c>
-      <c r="BY86" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ86" t="s" s="10">
-        <v>26</v>
+      <c r="BY86" t="n" s="10">
+        <v>116.5</v>
+      </c>
+      <c r="BZ86" t="n" s="10">
+        <v>116.5</v>
       </c>
       <c r="CA86" t="s" s="10">
         <v>26</v>
@@ -24090,11 +24090,11 @@
       <c r="BX87" t="n" s="10">
         <v>119.7</v>
       </c>
-      <c r="BY87" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ87" t="s" s="10">
-        <v>26</v>
+      <c r="BY87" t="n" s="10">
+        <v>121.5</v>
+      </c>
+      <c r="BZ87" t="n" s="10">
+        <v>122.4</v>
       </c>
       <c r="CA87" t="s" s="10">
         <v>26</v>
@@ -24350,11 +24350,11 @@
       <c r="BX88" t="n" s="10">
         <v>111.0</v>
       </c>
-      <c r="BY88" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ88" t="s" s="10">
-        <v>26</v>
+      <c r="BY88" t="n" s="10">
+        <v>111.1</v>
+      </c>
+      <c r="BZ88" t="n" s="10">
+        <v>113.1</v>
       </c>
       <c r="CA88" t="s" s="10">
         <v>26</v>
@@ -24610,11 +24610,11 @@
       <c r="BX89" t="n" s="10">
         <v>115.2</v>
       </c>
-      <c r="BY89" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ89" t="s" s="10">
-        <v>26</v>
+      <c r="BY89" t="n" s="10">
+        <v>115.4</v>
+      </c>
+      <c r="BZ89" t="n" s="10">
+        <v>118.4</v>
       </c>
       <c r="CA89" t="s" s="10">
         <v>26</v>
@@ -24870,11 +24870,11 @@
       <c r="BX90" t="n" s="10">
         <v>113.0</v>
       </c>
-      <c r="BY90" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ90" t="s" s="10">
-        <v>26</v>
+      <c r="BY90" t="n" s="10">
+        <v>113.0</v>
+      </c>
+      <c r="BZ90" t="n" s="10">
+        <v>115.6</v>
       </c>
       <c r="CA90" t="s" s="10">
         <v>26</v>
@@ -25130,11 +25130,11 @@
       <c r="BX91" t="n" s="10">
         <v>108.4</v>
       </c>
-      <c r="BY91" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ91" t="s" s="10">
-        <v>26</v>
+      <c r="BY91" t="n" s="10">
+        <v>108.7</v>
+      </c>
+      <c r="BZ91" t="n" s="10">
+        <v>110.1</v>
       </c>
       <c r="CA91" t="s" s="10">
         <v>26</v>
@@ -25390,11 +25390,11 @@
       <c r="BX92" t="n" s="10">
         <v>110.4</v>
       </c>
-      <c r="BY92" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ92" t="s" s="10">
-        <v>26</v>
+      <c r="BY92" t="n" s="10">
+        <v>110.5</v>
+      </c>
+      <c r="BZ92" t="n" s="10">
+        <v>111.6</v>
       </c>
       <c r="CA92" t="s" s="10">
         <v>26</v>
@@ -25650,11 +25650,11 @@
       <c r="BX93" t="n" s="10">
         <v>184.4</v>
       </c>
-      <c r="BY93" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ93" t="s" s="10">
-        <v>26</v>
+      <c r="BY93" t="n" s="10">
+        <v>200.6</v>
+      </c>
+      <c r="BZ93" t="n" s="10">
+        <v>207.1</v>
       </c>
       <c r="CA93" t="s" s="10">
         <v>26</v>
@@ -25910,11 +25910,11 @@
       <c r="BX94" t="n" s="10">
         <v>193.3</v>
       </c>
-      <c r="BY94" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ94" t="s" s="10">
-        <v>26</v>
+      <c r="BY94" t="n" s="10">
+        <v>211.4</v>
+      </c>
+      <c r="BZ94" t="n" s="10">
+        <v>218.3</v>
       </c>
       <c r="CA94" t="s" s="10">
         <v>26</v>
@@ -26170,11 +26170,11 @@
       <c r="BX95" t="n" s="10">
         <v>147.0</v>
       </c>
-      <c r="BY95" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ95" t="s" s="10">
-        <v>26</v>
+      <c r="BY95" t="n" s="10">
+        <v>147.0</v>
+      </c>
+      <c r="BZ95" t="n" s="10">
+        <v>147.0</v>
       </c>
       <c r="CA95" t="s" s="10">
         <v>26</v>
@@ -26430,11 +26430,11 @@
       <c r="BX96" t="n" s="10">
         <v>204.8</v>
       </c>
-      <c r="BY96" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ96" t="s" s="10">
-        <v>26</v>
+      <c r="BY96" t="n" s="10">
+        <v>243.0</v>
+      </c>
+      <c r="BZ96" t="n" s="10">
+        <v>235.4</v>
       </c>
       <c r="CA96" t="s" s="10">
         <v>26</v>
@@ -26690,11 +26690,11 @@
       <c r="BX97" t="n" s="10">
         <v>214.7</v>
       </c>
-      <c r="BY97" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ97" t="s" s="10">
-        <v>26</v>
+      <c r="BY97" t="n" s="10">
+        <v>241.9</v>
+      </c>
+      <c r="BZ97" t="n" s="10">
+        <v>275.5</v>
       </c>
       <c r="CA97" t="s" s="10">
         <v>26</v>
@@ -26950,11 +26950,11 @@
       <c r="BX98" t="n" s="10">
         <v>345.0</v>
       </c>
-      <c r="BY98" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ98" t="s" s="10">
-        <v>26</v>
+      <c r="BY98" t="n" s="10">
+        <v>338.0</v>
+      </c>
+      <c r="BZ98" t="n" s="10">
+        <v>417.6</v>
       </c>
       <c r="CA98" t="s" s="10">
         <v>26</v>
@@ -27210,11 +27210,11 @@
       <c r="BX99" t="n" s="10">
         <v>285.2</v>
       </c>
-      <c r="BY99" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ99" t="s" s="10">
-        <v>26</v>
+      <c r="BY99" t="n" s="10">
+        <v>317.8</v>
+      </c>
+      <c r="BZ99" t="n" s="10">
+        <v>357.9</v>
       </c>
       <c r="CA99" t="s" s="10">
         <v>26</v>
@@ -27268,7 +27268,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 01.04.22 / 04:05:01&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:43:42&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/Producer price index for industrial products - GPS codes - 2016.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Producer price index for industrial products - GPS codes - 2016.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="213">
   <si>
     <t>Producer price index for industrial products: Germany,
 months, product classification (GP2009 2-/3-/4-/5-/6-/
@@ -652,7 +652,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:43:35</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 06:54:44</t>
   </si>
 </sst>
 </file>
@@ -3296,8 +3296,8 @@
       <c r="BZ7" t="n" s="10">
         <v>140.4</v>
       </c>
-      <c r="CA7" t="s" s="10">
-        <v>26</v>
+      <c r="CA7" t="n" s="10">
+        <v>142.5</v>
       </c>
       <c r="CB7" t="s" s="10">
         <v>26</v>
@@ -3556,8 +3556,8 @@
       <c r="BZ8" t="n" s="10">
         <v>114.0</v>
       </c>
-      <c r="CA8" t="s" s="10">
-        <v>26</v>
+      <c r="CA8" t="n" s="10">
+        <v>114.6</v>
       </c>
       <c r="CB8" t="s" s="10">
         <v>26</v>
@@ -3816,8 +3816,8 @@
       <c r="BZ9" t="n" s="10">
         <v>117.6</v>
       </c>
-      <c r="CA9" t="s" s="10">
-        <v>26</v>
+      <c r="CA9" t="n" s="10">
+        <v>118.9</v>
       </c>
       <c r="CB9" t="s" s="10">
         <v>26</v>
@@ -4076,8 +4076,8 @@
       <c r="BZ10" t="n" s="10">
         <v>122.4</v>
       </c>
-      <c r="CA10" t="s" s="10">
-        <v>26</v>
+      <c r="CA10" t="n" s="10">
+        <v>124.0</v>
       </c>
       <c r="CB10" t="s" s="10">
         <v>26</v>
@@ -4336,8 +4336,8 @@
       <c r="BZ11" t="n" s="10">
         <v>121.8</v>
       </c>
-      <c r="CA11" t="s" s="10">
-        <v>26</v>
+      <c r="CA11" t="n" s="10">
+        <v>123.3</v>
       </c>
       <c r="CB11" t="s" s="10">
         <v>26</v>
@@ -4596,8 +4596,8 @@
       <c r="BZ12" t="n" s="10">
         <v>144.4</v>
       </c>
-      <c r="CA12" t="s" s="10">
-        <v>26</v>
+      <c r="CA12" t="n" s="10">
+        <v>146.7</v>
       </c>
       <c r="CB12" t="s" s="10">
         <v>26</v>
@@ -4856,8 +4856,8 @@
       <c r="BZ13" t="n" s="10">
         <v>126.8</v>
       </c>
-      <c r="CA13" t="s" s="10">
-        <v>26</v>
+      <c r="CA13" t="n" s="10">
+        <v>128.3</v>
       </c>
       <c r="CB13" t="s" s="10">
         <v>26</v>
@@ -5116,8 +5116,8 @@
       <c r="BZ14" t="n" s="10">
         <v>128.9</v>
       </c>
-      <c r="CA14" t="s" s="10">
-        <v>26</v>
+      <c r="CA14" t="n" s="10">
+        <v>130.3</v>
       </c>
       <c r="CB14" t="s" s="10">
         <v>26</v>
@@ -5376,8 +5376,8 @@
       <c r="BZ15" t="n" s="10">
         <v>129.1</v>
       </c>
-      <c r="CA15" t="s" s="10">
-        <v>26</v>
+      <c r="CA15" t="n" s="10">
+        <v>130.5</v>
       </c>
       <c r="CB15" t="s" s="10">
         <v>26</v>
@@ -5636,8 +5636,8 @@
       <c r="BZ16" t="n" s="10">
         <v>145.9</v>
       </c>
-      <c r="CA16" t="s" s="10">
-        <v>26</v>
+      <c r="CA16" t="n" s="10">
+        <v>148.3</v>
       </c>
       <c r="CB16" t="s" s="10">
         <v>26</v>
@@ -5896,8 +5896,8 @@
       <c r="BZ17" t="n" s="10">
         <v>202.8</v>
       </c>
-      <c r="CA17" t="s" s="10">
-        <v>26</v>
+      <c r="CA17" t="n" s="10">
+        <v>207.9</v>
       </c>
       <c r="CB17" t="s" s="10">
         <v>26</v>
@@ -6156,8 +6156,8 @@
       <c r="BZ18" t="n" s="10">
         <v>183.3</v>
       </c>
-      <c r="CA18" t="s" s="10">
-        <v>26</v>
+      <c r="CA18" t="n" s="10">
+        <v>170.8</v>
       </c>
       <c r="CB18" t="s" s="10">
         <v>26</v>
@@ -6416,8 +6416,8 @@
       <c r="BZ19" t="n" s="10">
         <v>143.9</v>
       </c>
-      <c r="CA19" t="s" s="10">
-        <v>26</v>
+      <c r="CA19" t="n" s="10">
+        <v>144.7</v>
       </c>
       <c r="CB19" t="s" s="10">
         <v>26</v>
@@ -6676,8 +6676,8 @@
       <c r="BZ20" t="n" s="10">
         <v>126.8</v>
       </c>
-      <c r="CA20" t="s" s="10">
-        <v>26</v>
+      <c r="CA20" t="n" s="10">
+        <v>128.5</v>
       </c>
       <c r="CB20" t="s" s="10">
         <v>26</v>
@@ -6936,8 +6936,8 @@
       <c r="BZ21" t="n" s="10">
         <v>125.0</v>
       </c>
-      <c r="CA21" t="s" s="10">
-        <v>26</v>
+      <c r="CA21" t="n" s="10">
+        <v>126.6</v>
       </c>
       <c r="CB21" t="s" s="10">
         <v>26</v>
@@ -7196,8 +7196,8 @@
       <c r="BZ22" t="n" s="10">
         <v>128.8</v>
       </c>
-      <c r="CA22" t="s" s="10">
-        <v>26</v>
+      <c r="CA22" t="n" s="10">
+        <v>130.8</v>
       </c>
       <c r="CB22" t="s" s="10">
         <v>26</v>
@@ -7456,8 +7456,8 @@
       <c r="BZ23" t="n" s="10">
         <v>126.7</v>
       </c>
-      <c r="CA23" t="s" s="10">
-        <v>26</v>
+      <c r="CA23" t="n" s="10">
+        <v>128.5</v>
       </c>
       <c r="CB23" t="s" s="10">
         <v>26</v>
@@ -7716,8 +7716,8 @@
       <c r="BZ24" t="n" s="10">
         <v>129.0</v>
       </c>
-      <c r="CA24" t="s" s="10">
-        <v>26</v>
+      <c r="CA24" t="n" s="10">
+        <v>130.9</v>
       </c>
       <c r="CB24" t="s" s="10">
         <v>26</v>
@@ -7976,8 +7976,8 @@
       <c r="BZ25" t="n" s="10">
         <v>140.4</v>
       </c>
-      <c r="CA25" t="s" s="10">
-        <v>26</v>
+      <c r="CA25" t="n" s="10">
+        <v>144.9</v>
       </c>
       <c r="CB25" t="s" s="10">
         <v>26</v>
@@ -8236,8 +8236,8 @@
       <c r="BZ26" t="n" s="10">
         <v>161.7</v>
       </c>
-      <c r="CA26" t="s" s="10">
-        <v>26</v>
+      <c r="CA26" t="n" s="10">
+        <v>166.4</v>
       </c>
       <c r="CB26" t="s" s="10">
         <v>26</v>
@@ -8496,8 +8496,8 @@
       <c r="BZ27" t="n" s="10">
         <v>230.2</v>
       </c>
-      <c r="CA27" t="s" s="10">
-        <v>26</v>
+      <c r="CA27" t="n" s="10">
+        <v>230.7</v>
       </c>
       <c r="CB27" t="s" s="10">
         <v>26</v>
@@ -8756,8 +8756,8 @@
       <c r="BZ28" t="n" s="10">
         <v>119.1</v>
       </c>
-      <c r="CA28" t="s" s="10">
-        <v>26</v>
+      <c r="CA28" t="n" s="10">
+        <v>122.5</v>
       </c>
       <c r="CB28" t="s" s="10">
         <v>26</v>
@@ -9016,8 +9016,8 @@
       <c r="BZ29" t="n" s="10">
         <v>126.6</v>
       </c>
-      <c r="CA29" t="s" s="10">
-        <v>26</v>
+      <c r="CA29" t="n" s="10">
+        <v>126.4</v>
       </c>
       <c r="CB29" t="s" s="10">
         <v>26</v>
@@ -9276,8 +9276,8 @@
       <c r="BZ30" t="n" s="10">
         <v>132.1</v>
       </c>
-      <c r="CA30" t="s" s="10">
-        <v>26</v>
+      <c r="CA30" t="n" s="10">
+        <v>133.5</v>
       </c>
       <c r="CB30" t="s" s="10">
         <v>26</v>
@@ -9536,8 +9536,8 @@
       <c r="BZ31" t="n" s="10">
         <v>170.4</v>
       </c>
-      <c r="CA31" t="s" s="10">
-        <v>26</v>
+      <c r="CA31" t="n" s="10">
+        <v>178.0</v>
       </c>
       <c r="CB31" t="s" s="10">
         <v>26</v>
@@ -9796,8 +9796,8 @@
       <c r="BZ32" t="n" s="10">
         <v>142.4</v>
       </c>
-      <c r="CA32" t="s" s="10">
-        <v>26</v>
+      <c r="CA32" t="n" s="10">
+        <v>151.9</v>
       </c>
       <c r="CB32" t="s" s="10">
         <v>26</v>
@@ -10056,8 +10056,8 @@
       <c r="BZ33" t="n" s="10">
         <v>111.2</v>
       </c>
-      <c r="CA33" t="s" s="10">
-        <v>26</v>
+      <c r="CA33" t="n" s="10">
+        <v>111.7</v>
       </c>
       <c r="CB33" t="s" s="10">
         <v>26</v>
@@ -10316,8 +10316,8 @@
       <c r="BZ34" t="n" s="10">
         <v>112.9</v>
       </c>
-      <c r="CA34" t="s" s="10">
-        <v>26</v>
+      <c r="CA34" t="n" s="10">
+        <v>114.5</v>
       </c>
       <c r="CB34" t="s" s="10">
         <v>26</v>
@@ -10576,8 +10576,8 @@
       <c r="BZ35" t="n" s="10">
         <v>113.2</v>
       </c>
-      <c r="CA35" t="s" s="10">
-        <v>26</v>
+      <c r="CA35" t="n" s="10">
+        <v>115.0</v>
       </c>
       <c r="CB35" t="s" s="10">
         <v>26</v>
@@ -10836,8 +10836,8 @@
       <c r="BZ36" t="n" s="10">
         <v>111.7</v>
       </c>
-      <c r="CA36" t="s" s="10">
-        <v>26</v>
+      <c r="CA36" t="n" s="10">
+        <v>112.4</v>
       </c>
       <c r="CB36" t="s" s="10">
         <v>26</v>
@@ -11096,8 +11096,8 @@
       <c r="BZ37" t="n" s="10">
         <v>112.6</v>
       </c>
-      <c r="CA37" t="s" s="10">
-        <v>26</v>
+      <c r="CA37" t="n" s="10">
+        <v>113.3</v>
       </c>
       <c r="CB37" t="s" s="10">
         <v>26</v>
@@ -11356,8 +11356,8 @@
       <c r="BZ38" t="n" s="10">
         <v>109.2</v>
       </c>
-      <c r="CA38" t="s" s="10">
-        <v>26</v>
+      <c r="CA38" t="n" s="10">
+        <v>109.2</v>
       </c>
       <c r="CB38" t="s" s="10">
         <v>26</v>
@@ -11616,8 +11616,8 @@
       <c r="BZ39" t="n" s="10">
         <v>116.3</v>
       </c>
-      <c r="CA39" t="s" s="10">
-        <v>26</v>
+      <c r="CA39" t="n" s="10">
+        <v>117.5</v>
       </c>
       <c r="CB39" t="s" s="10">
         <v>26</v>
@@ -11876,8 +11876,8 @@
       <c r="BZ40" t="n" s="10">
         <v>115.1</v>
       </c>
-      <c r="CA40" t="s" s="10">
-        <v>26</v>
+      <c r="CA40" t="n" s="10">
+        <v>115.3</v>
       </c>
       <c r="CB40" t="s" s="10">
         <v>26</v>
@@ -12136,8 +12136,8 @@
       <c r="BZ41" t="n" s="10">
         <v>114.4</v>
       </c>
-      <c r="CA41" t="s" s="10">
-        <v>26</v>
+      <c r="CA41" t="n" s="10">
+        <v>115.2</v>
       </c>
       <c r="CB41" t="s" s="10">
         <v>26</v>
@@ -12396,8 +12396,8 @@
       <c r="BZ42" t="n" s="10">
         <v>115.4</v>
       </c>
-      <c r="CA42" t="s" s="10">
-        <v>26</v>
+      <c r="CA42" t="n" s="10">
+        <v>116.4</v>
       </c>
       <c r="CB42" t="s" s="10">
         <v>26</v>
@@ -12656,8 +12656,8 @@
       <c r="BZ43" t="n" s="10">
         <v>115.3</v>
       </c>
-      <c r="CA43" t="s" s="10">
-        <v>26</v>
+      <c r="CA43" t="n" s="10">
+        <v>115.0</v>
       </c>
       <c r="CB43" t="s" s="10">
         <v>26</v>
@@ -12916,8 +12916,8 @@
       <c r="BZ44" t="n" s="10">
         <v>114.6</v>
       </c>
-      <c r="CA44" t="s" s="10">
-        <v>26</v>
+      <c r="CA44" t="n" s="10">
+        <v>114.4</v>
       </c>
       <c r="CB44" t="s" s="10">
         <v>26</v>
@@ -13176,8 +13176,8 @@
       <c r="BZ45" t="n" s="10">
         <v>117.9</v>
       </c>
-      <c r="CA45" t="s" s="10">
-        <v>26</v>
+      <c r="CA45" t="n" s="10">
+        <v>118.2</v>
       </c>
       <c r="CB45" t="s" s="10">
         <v>26</v>
@@ -13436,8 +13436,8 @@
       <c r="BZ46" t="n" s="10">
         <v>119.5</v>
       </c>
-      <c r="CA46" t="s" s="10">
-        <v>26</v>
+      <c r="CA46" t="n" s="10">
+        <v>120.9</v>
       </c>
       <c r="CB46" t="s" s="10">
         <v>26</v>
@@ -13696,8 +13696,8 @@
       <c r="BZ47" t="n" s="10">
         <v>115.7</v>
       </c>
-      <c r="CA47" t="s" s="10">
-        <v>26</v>
+      <c r="CA47" t="n" s="10">
+        <v>115.7</v>
       </c>
       <c r="CB47" t="s" s="10">
         <v>26</v>
@@ -13956,8 +13956,8 @@
       <c r="BZ48" t="n" s="10">
         <v>117.6</v>
       </c>
-      <c r="CA48" t="s" s="10">
-        <v>26</v>
+      <c r="CA48" t="n" s="10">
+        <v>117.2</v>
       </c>
       <c r="CB48" t="s" s="10">
         <v>26</v>
@@ -14216,8 +14216,8 @@
       <c r="BZ49" t="n" s="10">
         <v>125.2</v>
       </c>
-      <c r="CA49" t="s" s="10">
-        <v>26</v>
+      <c r="CA49" t="n" s="10">
+        <v>125.3</v>
       </c>
       <c r="CB49" t="s" s="10">
         <v>26</v>
@@ -14476,8 +14476,8 @@
       <c r="BZ50" t="n" s="10">
         <v>123.6</v>
       </c>
-      <c r="CA50" t="s" s="10">
-        <v>26</v>
+      <c r="CA50" t="n" s="10">
+        <v>124.0</v>
       </c>
       <c r="CB50" t="s" s="10">
         <v>26</v>
@@ -14736,8 +14736,8 @@
       <c r="BZ51" t="n" s="10">
         <v>114.8</v>
       </c>
-      <c r="CA51" t="s" s="10">
-        <v>26</v>
+      <c r="CA51" t="n" s="10">
+        <v>116.0</v>
       </c>
       <c r="CB51" t="s" s="10">
         <v>26</v>
@@ -14996,8 +14996,8 @@
       <c r="BZ52" t="n" s="10">
         <v>113.2</v>
       </c>
-      <c r="CA52" t="s" s="10">
-        <v>26</v>
+      <c r="CA52" t="n" s="10">
+        <v>113.6</v>
       </c>
       <c r="CB52" t="s" s="10">
         <v>26</v>
@@ -15256,8 +15256,8 @@
       <c r="BZ53" t="n" s="10">
         <v>110.3</v>
       </c>
-      <c r="CA53" t="s" s="10">
-        <v>26</v>
+      <c r="CA53" t="n" s="10">
+        <v>110.3</v>
       </c>
       <c r="CB53" t="s" s="10">
         <v>26</v>
@@ -15516,8 +15516,8 @@
       <c r="BZ54" t="n" s="10">
         <v>117.8</v>
       </c>
-      <c r="CA54" t="s" s="10">
-        <v>26</v>
+      <c r="CA54" t="n" s="10">
+        <v>120.6</v>
       </c>
       <c r="CB54" t="s" s="10">
         <v>26</v>
@@ -15776,8 +15776,8 @@
       <c r="BZ55" t="n" s="10">
         <v>121.5</v>
       </c>
-      <c r="CA55" t="s" s="10">
-        <v>26</v>
+      <c r="CA55" t="n" s="10">
+        <v>123.1</v>
       </c>
       <c r="CB55" t="s" s="10">
         <v>26</v>
@@ -16036,8 +16036,8 @@
       <c r="BZ56" t="n" s="10">
         <v>117.8</v>
       </c>
-      <c r="CA56" t="s" s="10">
-        <v>26</v>
+      <c r="CA56" t="n" s="10">
+        <v>119.1</v>
       </c>
       <c r="CB56" t="s" s="10">
         <v>26</v>
@@ -16296,8 +16296,8 @@
       <c r="BZ57" t="n" s="10">
         <v>116.1</v>
       </c>
-      <c r="CA57" t="s" s="10">
-        <v>26</v>
+      <c r="CA57" t="n" s="10">
+        <v>117.0</v>
       </c>
       <c r="CB57" t="s" s="10">
         <v>26</v>
@@ -16556,8 +16556,8 @@
       <c r="BZ58" t="n" s="10">
         <v>121.2</v>
       </c>
-      <c r="CA58" t="s" s="10">
-        <v>26</v>
+      <c r="CA58" t="n" s="10">
+        <v>122.8</v>
       </c>
       <c r="CB58" t="s" s="10">
         <v>26</v>
@@ -16816,8 +16816,8 @@
       <c r="BZ59" t="n" s="10">
         <v>120.1</v>
       </c>
-      <c r="CA59" t="s" s="10">
-        <v>26</v>
+      <c r="CA59" t="n" s="10">
+        <v>122.0</v>
       </c>
       <c r="CB59" t="s" s="10">
         <v>26</v>
@@ -17076,8 +17076,8 @@
       <c r="BZ60" t="n" s="10">
         <v>118.3</v>
       </c>
-      <c r="CA60" t="s" s="10">
-        <v>26</v>
+      <c r="CA60" t="n" s="10">
+        <v>118.9</v>
       </c>
       <c r="CB60" t="s" s="10">
         <v>26</v>
@@ -17336,8 +17336,8 @@
       <c r="BZ61" t="n" s="10">
         <v>116.0</v>
       </c>
-      <c r="CA61" t="s" s="10">
-        <v>26</v>
+      <c r="CA61" t="n" s="10">
+        <v>118.6</v>
       </c>
       <c r="CB61" t="s" s="10">
         <v>26</v>
@@ -17596,8 +17596,8 @@
       <c r="BZ62" t="n" s="10">
         <v>118.8</v>
       </c>
-      <c r="CA62" t="s" s="10">
-        <v>26</v>
+      <c r="CA62" t="n" s="10">
+        <v>119.9</v>
       </c>
       <c r="CB62" t="s" s="10">
         <v>26</v>
@@ -17856,8 +17856,8 @@
       <c r="BZ63" t="n" s="10">
         <v>110.5</v>
       </c>
-      <c r="CA63" t="s" s="10">
-        <v>26</v>
+      <c r="CA63" t="n" s="10">
+        <v>111.3</v>
       </c>
       <c r="CB63" t="s" s="10">
         <v>26</v>
@@ -18116,8 +18116,8 @@
       <c r="BZ64" t="n" s="10">
         <v>119.2</v>
       </c>
-      <c r="CA64" t="s" s="10">
-        <v>26</v>
+      <c r="CA64" t="n" s="10">
+        <v>119.9</v>
       </c>
       <c r="CB64" t="s" s="10">
         <v>26</v>
@@ -18376,8 +18376,8 @@
       <c r="BZ65" t="n" s="10">
         <v>116.9</v>
       </c>
-      <c r="CA65" t="s" s="10">
-        <v>26</v>
+      <c r="CA65" t="n" s="10">
+        <v>117.6</v>
       </c>
       <c r="CB65" t="s" s="10">
         <v>26</v>
@@ -18636,8 +18636,8 @@
       <c r="BZ66" t="n" s="10">
         <v>112.0</v>
       </c>
-      <c r="CA66" t="s" s="10">
-        <v>26</v>
+      <c r="CA66" t="n" s="10">
+        <v>113.1</v>
       </c>
       <c r="CB66" t="s" s="10">
         <v>26</v>
@@ -18896,8 +18896,8 @@
       <c r="BZ67" t="n" s="10">
         <v>124.1</v>
       </c>
-      <c r="CA67" t="s" s="10">
-        <v>26</v>
+      <c r="CA67" t="n" s="10">
+        <v>124.7</v>
       </c>
       <c r="CB67" t="s" s="10">
         <v>26</v>
@@ -19156,8 +19156,8 @@
       <c r="BZ68" t="n" s="10">
         <v>115.8</v>
       </c>
-      <c r="CA68" t="s" s="10">
-        <v>26</v>
+      <c r="CA68" t="n" s="10">
+        <v>116.6</v>
       </c>
       <c r="CB68" t="s" s="10">
         <v>26</v>
@@ -19416,8 +19416,8 @@
       <c r="BZ69" t="n" s="10">
         <v>117.9</v>
       </c>
-      <c r="CA69" t="s" s="10">
-        <v>26</v>
+      <c r="CA69" t="n" s="10">
+        <v>117.9</v>
       </c>
       <c r="CB69" t="s" s="10">
         <v>26</v>
@@ -19676,8 +19676,8 @@
       <c r="BZ70" t="n" s="10">
         <v>121.5</v>
       </c>
-      <c r="CA70" t="s" s="10">
-        <v>26</v>
+      <c r="CA70" t="n" s="10">
+        <v>123.1</v>
       </c>
       <c r="CB70" t="s" s="10">
         <v>26</v>
@@ -19936,8 +19936,8 @@
       <c r="BZ71" t="n" s="10">
         <v>117.9</v>
       </c>
-      <c r="CA71" t="s" s="10">
-        <v>26</v>
+      <c r="CA71" t="n" s="10">
+        <v>119.2</v>
       </c>
       <c r="CB71" t="s" s="10">
         <v>26</v>
@@ -20196,8 +20196,8 @@
       <c r="BZ72" t="n" s="10">
         <v>118.7</v>
       </c>
-      <c r="CA72" t="s" s="10">
-        <v>26</v>
+      <c r="CA72" t="n" s="10">
+        <v>119.9</v>
       </c>
       <c r="CB72" t="s" s="10">
         <v>26</v>
@@ -20456,8 +20456,8 @@
       <c r="BZ73" t="n" s="10">
         <v>120.1</v>
       </c>
-      <c r="CA73" t="s" s="10">
-        <v>26</v>
+      <c r="CA73" t="n" s="10">
+        <v>120.1</v>
       </c>
       <c r="CB73" t="s" s="10">
         <v>26</v>
@@ -20716,8 +20716,8 @@
       <c r="BZ74" t="n" s="10">
         <v>118.9</v>
       </c>
-      <c r="CA74" t="s" s="10">
-        <v>26</v>
+      <c r="CA74" t="n" s="10">
+        <v>120.3</v>
       </c>
       <c r="CB74" t="s" s="10">
         <v>26</v>
@@ -20976,8 +20976,8 @@
       <c r="BZ75" t="n" s="10">
         <v>113.9</v>
       </c>
-      <c r="CA75" t="s" s="10">
-        <v>26</v>
+      <c r="CA75" t="n" s="10">
+        <v>114.3</v>
       </c>
       <c r="CB75" t="s" s="10">
         <v>26</v>
@@ -21236,8 +21236,8 @@
       <c r="BZ76" t="n" s="10">
         <v>113.0</v>
       </c>
-      <c r="CA76" t="s" s="10">
-        <v>26</v>
+      <c r="CA76" t="n" s="10">
+        <v>113.4</v>
       </c>
       <c r="CB76" t="s" s="10">
         <v>26</v>
@@ -21496,8 +21496,8 @@
       <c r="BZ77" t="n" s="10">
         <v>114.7</v>
       </c>
-      <c r="CA77" t="s" s="10">
-        <v>26</v>
+      <c r="CA77" t="n" s="10">
+        <v>115.3</v>
       </c>
       <c r="CB77" t="s" s="10">
         <v>26</v>
@@ -21756,8 +21756,8 @@
       <c r="BZ78" t="n" s="10">
         <v>117.0</v>
       </c>
-      <c r="CA78" t="s" s="10">
-        <v>26</v>
+      <c r="CA78" t="n" s="10">
+        <v>117.7</v>
       </c>
       <c r="CB78" t="s" s="10">
         <v>26</v>
@@ -22016,8 +22016,8 @@
       <c r="BZ79" t="n" s="10">
         <v>119.1</v>
       </c>
-      <c r="CA79" t="s" s="10">
-        <v>26</v>
+      <c r="CA79" t="n" s="10">
+        <v>119.7</v>
       </c>
       <c r="CB79" t="s" s="10">
         <v>26</v>
@@ -22276,8 +22276,8 @@
       <c r="BZ80" t="n" s="10">
         <v>116.9</v>
       </c>
-      <c r="CA80" t="s" s="10">
-        <v>26</v>
+      <c r="CA80" t="n" s="10">
+        <v>117.6</v>
       </c>
       <c r="CB80" t="s" s="10">
         <v>26</v>
@@ -22536,8 +22536,8 @@
       <c r="BZ81" t="n" s="10">
         <v>112.5</v>
       </c>
-      <c r="CA81" t="s" s="10">
-        <v>26</v>
+      <c r="CA81" t="n" s="10">
+        <v>113.3</v>
       </c>
       <c r="CB81" t="s" s="10">
         <v>26</v>
@@ -22796,8 +22796,8 @@
       <c r="BZ82" t="n" s="10">
         <v>123.1</v>
       </c>
-      <c r="CA82" t="s" s="10">
-        <v>26</v>
+      <c r="CA82" t="n" s="10">
+        <v>124.0</v>
       </c>
       <c r="CB82" t="s" s="10">
         <v>26</v>
@@ -23056,8 +23056,8 @@
       <c r="BZ83" t="n" s="10">
         <v>115.9</v>
       </c>
-      <c r="CA83" t="s" s="10">
-        <v>26</v>
+      <c r="CA83" t="n" s="10">
+        <v>117.7</v>
       </c>
       <c r="CB83" t="s" s="10">
         <v>26</v>
@@ -23316,8 +23316,8 @@
       <c r="BZ84" t="n" s="10">
         <v>114.9</v>
       </c>
-      <c r="CA84" t="s" s="10">
-        <v>26</v>
+      <c r="CA84" t="n" s="10">
+        <v>116.2</v>
       </c>
       <c r="CB84" t="s" s="10">
         <v>26</v>
@@ -23576,8 +23576,8 @@
       <c r="BZ85" t="n" s="10">
         <v>114.6</v>
       </c>
-      <c r="CA85" t="s" s="10">
-        <v>26</v>
+      <c r="CA85" t="n" s="10">
+        <v>114.7</v>
       </c>
       <c r="CB85" t="s" s="10">
         <v>26</v>
@@ -23836,8 +23836,8 @@
       <c r="BZ86" t="n" s="10">
         <v>116.5</v>
       </c>
-      <c r="CA86" t="s" s="10">
-        <v>26</v>
+      <c r="CA86" t="n" s="10">
+        <v>116.5</v>
       </c>
       <c r="CB86" t="s" s="10">
         <v>26</v>
@@ -24096,8 +24096,8 @@
       <c r="BZ87" t="n" s="10">
         <v>122.4</v>
       </c>
-      <c r="CA87" t="s" s="10">
-        <v>26</v>
+      <c r="CA87" t="n" s="10">
+        <v>123.2</v>
       </c>
       <c r="CB87" t="s" s="10">
         <v>26</v>
@@ -24356,8 +24356,8 @@
       <c r="BZ88" t="n" s="10">
         <v>113.1</v>
       </c>
-      <c r="CA88" t="s" s="10">
-        <v>26</v>
+      <c r="CA88" t="n" s="10">
+        <v>113.1</v>
       </c>
       <c r="CB88" t="s" s="10">
         <v>26</v>
@@ -24616,8 +24616,8 @@
       <c r="BZ89" t="n" s="10">
         <v>118.4</v>
       </c>
-      <c r="CA89" t="s" s="10">
-        <v>26</v>
+      <c r="CA89" t="n" s="10">
+        <v>119.4</v>
       </c>
       <c r="CB89" t="s" s="10">
         <v>26</v>
@@ -24876,8 +24876,8 @@
       <c r="BZ90" t="n" s="10">
         <v>115.6</v>
       </c>
-      <c r="CA90" t="s" s="10">
-        <v>26</v>
+      <c r="CA90" t="n" s="10">
+        <v>116.0</v>
       </c>
       <c r="CB90" t="s" s="10">
         <v>26</v>
@@ -25136,8 +25136,8 @@
       <c r="BZ91" t="n" s="10">
         <v>110.1</v>
       </c>
-      <c r="CA91" t="s" s="10">
-        <v>26</v>
+      <c r="CA91" t="n" s="10">
+        <v>111.3</v>
       </c>
       <c r="CB91" t="s" s="10">
         <v>26</v>
@@ -25396,8 +25396,8 @@
       <c r="BZ92" t="n" s="10">
         <v>111.6</v>
       </c>
-      <c r="CA92" t="s" s="10">
-        <v>26</v>
+      <c r="CA92" t="n" s="10">
+        <v>111.7</v>
       </c>
       <c r="CB92" t="s" s="10">
         <v>26</v>
@@ -25656,8 +25656,8 @@
       <c r="BZ93" t="n" s="10">
         <v>207.1</v>
       </c>
-      <c r="CA93" t="s" s="10">
-        <v>26</v>
+      <c r="CA93" t="n" s="10">
+        <v>213.0</v>
       </c>
       <c r="CB93" t="s" s="10">
         <v>26</v>
@@ -25916,8 +25916,8 @@
       <c r="BZ94" t="n" s="10">
         <v>218.3</v>
       </c>
-      <c r="CA94" t="s" s="10">
-        <v>26</v>
+      <c r="CA94" t="n" s="10">
+        <v>224.8</v>
       </c>
       <c r="CB94" t="s" s="10">
         <v>26</v>
@@ -26176,8 +26176,8 @@
       <c r="BZ95" t="n" s="10">
         <v>147.0</v>
       </c>
-      <c r="CA95" t="s" s="10">
-        <v>26</v>
+      <c r="CA95" t="n" s="10">
+        <v>147.0</v>
       </c>
       <c r="CB95" t="s" s="10">
         <v>26</v>
@@ -26436,8 +26436,8 @@
       <c r="BZ96" t="n" s="10">
         <v>235.4</v>
       </c>
-      <c r="CA96" t="s" s="10">
-        <v>26</v>
+      <c r="CA96" t="n" s="10">
+        <v>239.1</v>
       </c>
       <c r="CB96" t="s" s="10">
         <v>26</v>
@@ -26696,8 +26696,8 @@
       <c r="BZ97" t="n" s="10">
         <v>275.5</v>
       </c>
-      <c r="CA97" t="s" s="10">
-        <v>26</v>
+      <c r="CA97" t="n" s="10">
+        <v>259.7</v>
       </c>
       <c r="CB97" t="s" s="10">
         <v>26</v>
@@ -26956,8 +26956,8 @@
       <c r="BZ98" t="n" s="10">
         <v>417.6</v>
       </c>
-      <c r="CA98" t="s" s="10">
-        <v>26</v>
+      <c r="CA98" t="n" s="10">
+        <v>381.5</v>
       </c>
       <c r="CB98" t="s" s="10">
         <v>26</v>
@@ -27216,8 +27216,8 @@
       <c r="BZ99" t="n" s="10">
         <v>357.9</v>
       </c>
-      <c r="CA99" t="s" s="10">
-        <v>26</v>
+      <c r="CA99" t="n" s="10">
+        <v>335.4</v>
       </c>
       <c r="CB99" t="s" s="10">
         <v>26</v>
@@ -27268,7 +27268,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:43:42&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 06:54:51&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>